--- a/excel/exported/permissions.xlsx
+++ b/excel/exported/permissions.xlsx
@@ -24,7 +24,7 @@
     <t>crud accounts permission</t>
   </si>
   <si>
-    <t>2020-10-06 19:54:05.0000000</t>
+    <t>2021-03-27 11:28:32.0000000</t>
   </si>
   <si>
     <t>crud_truck_enter</t>

--- a/excel/exported/permissions.xlsx
+++ b/excel/exported/permissions.xlsx
@@ -24,7 +24,7 @@
     <t>crud accounts permission</t>
   </si>
   <si>
-    <t>2021-03-27 11:28:32.0000000</t>
+    <t>2020-10-06 19:54:05.0000000</t>
   </si>
   <si>
     <t>crud_truck_enter</t>
